--- a/biology/Botanique/Orobanche_lavandulacea/Orobanche_lavandulacea.xlsx
+++ b/biology/Botanique/Orobanche_lavandulacea/Orobanche_lavandulacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Orobanche couleur de Lavande (Orobanche lavandulacea) est une espèce de plantes dicotylédones parasites de la famille des Orobanchaceae originaire du bassin méditerranéen.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phelipanche lavandulacea (F.W.Schultz) Pomel, 1874
 Orobanche fraasii F.W. Schultz
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hauteur de 15 à 50 cm de haut[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hauteur de 15 à 50 cm de haut.</t>
         </is>
       </c>
     </row>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orobanche parasite principalement Bituminaria bituminosa[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orobanche parasite principalement Bituminaria bituminosa.
 </t>
         </is>
       </c>
